--- a/数据整理/stocks/A股/科创板/688166-博瑞医药.xlsx
+++ b/数据整理/stocks/A股/科创板/688166-博瑞医药.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005679</t>
+          <t>005682</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通资管鑫盛6个月定期开放混合</t>
+          <t>财通资管消费精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32.15</t>
+          <t>14.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5872</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006274</t>
+          <t>005112</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>圆信永丰医药健康混合</t>
+          <t>银华中证全指医药卫生指数增强</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.98</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001965</t>
+          <t>005108</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>圆信永丰兴源灵活配置混合A</t>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.80</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001966</t>
+          <t>001965</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>圆信永丰兴源灵活配置混合C</t>
+          <t>圆信永丰兴源灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.43</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>7.80</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005112</t>
+          <t>001966</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银华中证全指医药卫生指数增强</t>
+          <t>圆信永丰兴源灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.20</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.91</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005682</t>
+          <t>006274</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>财通资管消费精选灵活配置混合A</t>
+          <t>圆信永丰医药健康混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011020</t>
+          <t>005679</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>财通资管消费精选灵活配置混合C</t>
+          <t>财通资管鑫盛6个月定期开放混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005108</t>
+          <t>011020</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+          <t>财通资管消费精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.52</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +832,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -762,25 +862,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005112</t>
+          <t>009774</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华中证全指医药卫生指数增强</t>
+          <t>财通资管优选回报一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>16.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.78</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7316</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004536</t>
+          <t>005682</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
+          <t>财通资管消费精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3771</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -818,26 +938,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005682</t>
+          <t>005112</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>财通资管消费精选灵活配置混合A</t>
+          <t>银华中证全指医药卫生指数增强</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.93</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -846,26 +976,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011020</t>
+          <t>008277</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>财通资管消费精选灵活配置混合C</t>
+          <t>财通资管行业精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.93</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009774</t>
+          <t>011020</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>财通资管优选回报一年持有期混合</t>
+          <t>财通资管消费精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>83.57</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -902,25 +1052,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008277</t>
+          <t>004536</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>财通资管行业精选混合</t>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.95</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688166-博瑞医药.xlsx
+++ b/数据整理/stocks/A股/科创板/688166-博瑞医药.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8169</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3157</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2544</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2435</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004888</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004889</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688166-博瑞医药.xlsx
+++ b/数据整理/stocks/A股/科创板/688166-博瑞医药.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1486,4 +1487,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688166-博瑞医药.xlsx
+++ b/数据整理/stocks/A股/科创板/688166-博瑞医药.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1495,7 +1496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1506,17 +1507,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1526,14 +1547,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.77</v>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3923</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1542,14 +1585,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.31</v>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2216</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1558,13 +1623,211 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688166-博瑞医药.xlsx
+++ b/数据整理/stocks/A股/科创板/688166-博瑞医药.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1742,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,17 +1754,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1773,14 +1794,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -1789,14 +1884,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>1.77</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4">
@@ -1805,14 +1900,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>1.31</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="5">
@@ -1821,13 +1916,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688166-博瑞医药.xlsx
+++ b/数据整理/stocks/A股/科创板/688166-博瑞医药.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1837,7 +1838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1848,17 +1849,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1868,14 +1889,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1884,14 +1927,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7</v>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1900,14 +1965,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.77</v>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1916,14 +2003,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.31</v>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>46.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1932,13 +2041,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>46.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015171</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688166-博瑞医药.xlsx
+++ b/数据整理/stocks/A股/科创板/688166-博瑞医药.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,357 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005682</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>财通资管消费精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>14.98</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5872</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005112</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华中证全指医药卫生指数增强</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.91</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1951</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005108</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>圆信永丰双利优选定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.52</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1399</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001965</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>圆信永丰兴源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.80</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0952</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
+      <c r="D5" t="n">
+        <v>1.77</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001966</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>圆信永丰兴源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.80</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006274</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>圆信永丰医药健康混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.98</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0126</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005679</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>财通资管鑫盛6个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>32.15</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011020</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>财通资管消费精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.06</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -837,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -867,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009774</t>
+          <t>005433</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通资管优选回报一年持有期混合</t>
+          <t>申万菱信医药先锋股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.59</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.57</t>
+          <t>87.80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7316</t>
+          <t>0.0727</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -905,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005682</t>
+          <t>004044</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>财通资管消费精选灵活配置混合A</t>
+          <t>金鹰转型动力灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.93</t>
+          <t>85.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3771</t>
+          <t>0.0321</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -943,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005112</t>
+          <t>002303</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华中证全指医药卫生指数增强</t>
+          <t>金鹰智慧生活灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>91.12</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>8.72</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1214</t>
+          <t>0.0070</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -981,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008277</t>
+          <t>008443</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>财通资管行业精选混合</t>
+          <t>九泰动态策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.95</t>
+          <t>46.44</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0690</t>
+          <t>0.0035</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1019,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011020</t>
+          <t>008444</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>财通资管消费精选灵活配置混合C</t>
+          <t>九泰动态策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.93</t>
+          <t>46.44</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0059</t>
+          <t>0.0018</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1057,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004536</t>
+          <t>015171</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
+          <t>申万菱信医药先锋股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>87.80</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0031</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1100,7 +872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,7 +893,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1151,340 +923,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009774</t>
+          <t>005433</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通资管优选回报一年持有期混合</t>
+          <t>申万菱信医药先锋股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.84</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>90.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8169</t>
+          <t>0.0812</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005682</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>财通资管消费精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3157</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001170</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰达宏利复兴伟业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2544</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>162207</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰达宏利效率优选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9.26</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>69.77</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2435</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011431</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泰达宏利消费服务混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.16</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1194</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011020</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>财通资管消费精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.88</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0086</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011432</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰达宏利消费服务混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.16</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004888</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>财通资管鑫逸回报混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>21.80</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
         <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004889</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>财通资管鑫逸回报混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>21.80</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1744,7 +1212,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1765,7 +1233,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1795,36 +1263,340 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005433</t>
+          <t>009774</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>申万菱信医药先锋股票</t>
+          <t>财通资管优选回报一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>20.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>93.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0812</t>
+          <t>0.8169</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3157</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2544</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2435</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004888</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004889</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1859,7 +1631,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1889,36 +1661,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005433</t>
+          <t>009774</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>申万菱信医药先锋股票</t>
+          <t>财通资管优选回报一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>16.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.80</t>
+          <t>83.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0727</t>
+          <t>0.7316</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1927,36 +1699,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004044</t>
+          <t>005682</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰转型动力灵活配置混合</t>
+          <t>财通资管消费精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.88</t>
+          <t>92.93</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0321</t>
+          <t>0.3771</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1965,36 +1737,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002303</t>
+          <t>005112</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰智慧生活灵活配置混合</t>
+          <t>银华中证全指医药卫生指数增强</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.12</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.72</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.1214</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2003,36 +1775,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008443</t>
+          <t>008277</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>九泰动态策略灵活配置混合A</t>
+          <t>财通资管行业精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>46.44</t>
+          <t>89.95</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.0690</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2041,36 +1813,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008444</t>
+          <t>011020</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>九泰动态策略灵活配置混合C</t>
+          <t>财通资管消费精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>46.44</t>
+          <t>92.93</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0018</t>
+          <t>0.0059</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2079,36 +1851,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>015171</t>
+          <t>004536</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>申万菱信医药先锋股票C</t>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>87.80</t>
+          <t>94.34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2122,128 +1894,356 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5872</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005679</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管鑫盛6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.06</v>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688166-博瑞医药.xlsx
+++ b/数据整理/stocks/A股/科创板/688166-博瑞医药.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.12</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.77</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>1.31</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.06</v>
       </c>
     </row>
@@ -583,6 +600,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4774</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -866,7 +977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -960,7 +1071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1206,7 +1317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1604,7 +1715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1888,7 +1999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
